--- a/заказы/статистика филиалы/2024/01,24/25,01,24 ЗПФ/дв 25,01,24 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/25,01,24 ЗПФ/дв 25,01,24 бррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\25,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE2AF5A-C357-4DFC-8B5E-69314AF1039A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484F831-DC8B-4097-9C90-22D87643854E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -275,6 +275,9 @@
   <si>
     <t>29,01,</t>
   </si>
+  <si>
+    <t>25,01,</t>
+  </si>
 </sst>
 </file>
 
@@ -295,17 +298,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -711,7 +720,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomLeft" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +980,9 @@
       <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1703,7 +1714,7 @@
         <v>3.7</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" ref="AB7:AB49" si="8">Q11/AA11</f>
+        <f t="shared" ref="AB11:AB49" si="8">Q11/AA11</f>
         <v>0</v>
       </c>
       <c r="AC11" s="1">
